--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/SpecInnReCheck.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/SpecInnReCheck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A5BBA-771D-497A-837A-08A6B1B4ABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4C1C2-D2AE-4E64-86F6-03CD1D742993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>00'~'12'-複審名單的複審週期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SpecInnReCheck</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,6 +228,10 @@
   </si>
   <si>
     <t>Decimal</t>
+  </si>
+  <si>
+    <t>'00'~'12'-複審名單的複審週期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,6 +525,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -536,21 +551,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -895,7 +895,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -910,23 +910,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -938,12 +938,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -953,10 +953,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -964,10 +964,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -975,10 +975,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -986,10 +986,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1092,30 +1092,30 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="31" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
+      <c r="A13" s="36">
         <v>5</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="D13" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="E13" s="34">
         <v>6</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="A14" s="36">
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -1132,7 +1132,7 @@
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="A15" s="36">
         <v>7</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -1151,7 +1151,7 @@
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+      <c r="A16" s="36">
         <v>8</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -1168,7 +1168,7 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="A17" s="36">
         <v>9</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -1235,18 +1235,18 @@
         <v>37</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
